--- a/Data_file/operation_bu2_น่น_2803.xlsx
+++ b/Data_file/operation_bu2_น่น_2803.xlsx
@@ -3497,14 +3497,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6079"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.44140625" customWidth="1"/>
-    <col min="3" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="7" width="8.88671875" customWidth="1"/>
     <col min="8" max="9" width="17.5546875" customWidth="1"/>
     <col min="10" max="10" width="17.5546875" style="6" customWidth="1"/>
   </cols>
